--- a/Misc/Measurements and calculations/Distance and redundancy/Redundancy in bus/redundancy in bus initial.xlsx
+++ b/Misc/Measurements and calculations/Distance and redundancy/Redundancy in bus/redundancy in bus initial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Documents/GitHub/Bachelor-Nordic_Semi/Misc/Measurements and calculations/Distance and redundancy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simenrostad/Documents/GitHub/Bachelor-Nordic_Semi/Misc/Measurements and calculations/Distance and redundancy/Redundancy in bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCE7FC7-54DD-9345-AF8C-95F7C90246F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769BACAF-DF1E-4542-996B-FD6884B256B6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{1408779D-6DE9-E44C-93CC-13A9E91669F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{1408779D-6DE9-E44C-93CC-13A9E91669F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4F7A05-7844-1941-B9F1-A0F37593EE07}">
-  <dimension ref="A2:G51"/>
+  <dimension ref="A2:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,23 +605,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>4</v>
@@ -635,7 +621,7 @@
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>4</v>
@@ -649,21 +635,21 @@
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
-        <v>14</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>4</v>
@@ -671,13 +657,13 @@
       <c r="F23" s="5">
         <v>0</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>4</v>
+      <c r="G23" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
@@ -685,27 +671,27 @@
       <c r="F24" s="5">
         <v>0</v>
       </c>
-      <c r="G24" s="5">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>4</v>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
@@ -719,7 +705,7 @@
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
@@ -733,7 +719,7 @@
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>4</v>
@@ -747,21 +733,21 @@
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C29" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="5">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>4</v>
@@ -775,21 +761,21 @@
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>4</v>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
@@ -803,7 +789,7 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>4</v>
@@ -817,7 +803,7 @@
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>4</v>
@@ -831,7 +817,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>4</v>
@@ -845,35 +831,35 @@
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
-        <v>0</v>
+      <c r="F36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>4</v>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>4</v>
@@ -887,13 +873,13 @@
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C39" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="5">
-        <v>0</v>
+      <c r="F39" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>4</v>
@@ -901,7 +887,7 @@
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>4</v>
@@ -915,7 +901,7 @@
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>4</v>
@@ -923,13 +909,13 @@
       <c r="F41" s="5">
         <v>0</v>
       </c>
-      <c r="G41" s="5">
-        <v>0</v>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C42" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
@@ -943,21 +929,21 @@
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C43" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C44" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
@@ -971,7 +957,7 @@
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C45" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
@@ -985,7 +971,7 @@
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C46" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>4</v>
@@ -999,37 +985,51 @@
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C47" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C48" s="2">
+        <v>39</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49" s="2">
         <v>40</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D51" s="7" t="s">
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D52" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>15</v>
       </c>
     </row>
